--- a/PA/projeto smart energy.xlsx
+++ b/PA/projeto smart energy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alunosipca-my.sharepoint.com/personal/a2727_alunos_ipca_pt/Documents/Documents/GitHub/LESI3_SmartCampus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alunosipca-my.sharepoint.com/personal/a2727_alunos_ipca_pt/Documents/Documents/GitHub/LESI3_SmartCampus/PA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AD4DF034E34935FBC521DCBB979A402C5BDEDD84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FC1DA02-E8A9-4B64-9BFE-86B63A4B408F}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_AD4DF034E34935FBC521DCBB979A402C5BDEDD84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1073CE9B-AFDA-46C0-9454-C403578F1448}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Smart Energy</t>
   </si>
   <si>
     <t>Controlo de iluminação pública</t>
+  </si>
+  <si>
+    <t>Base de Dados</t>
+  </si>
+  <si>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>Âmbito</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de uma base de dados MySQL para gerir o sistema de iluminação pública</t>
+  </si>
+  <si>
+    <t>Arquitetura</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de uma arquitetura em serviços que permita gerir, monitorizar todo os sistema e envie alertas</t>
+  </si>
+  <si>
+    <t>App Mobile</t>
+  </si>
+  <si>
+    <t>Funcionalidades</t>
+  </si>
+  <si>
+    <t>Sensores</t>
+  </si>
+  <si>
+    <t>deteção de quantidade de luz</t>
+  </si>
+  <si>
+    <t>gestão de energia autonomamente</t>
+  </si>
+  <si>
+    <t>só ligar a iluminação quando o sensor de quantidade de luz estiver abaixo de um determinado valor</t>
+  </si>
+  <si>
+    <t>desligar a iluminação ou reduzir a quantidade para um valor mínima em causo de ausência de movimento</t>
+  </si>
+  <si>
+    <t>em ruas com mais de um poste intercalar a iluminação quando se verifique ausência de movimento</t>
+  </si>
+  <si>
+    <t>deteção de movimento</t>
+  </si>
+  <si>
+    <t>função administrativas para obter relatórios de gastos, utilização, por movimentação,…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,8 +122,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,25 +417,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="A2:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PA/projeto smart energy.xlsx
+++ b/PA/projeto smart energy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alunosipca-my.sharepoint.com/personal/a2727_alunos_ipca_pt/Documents/Documents/GitHub/LESI3_SmartCampus/PA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_AD4DF034E34935FBC521DCBB979A402C5BDEDD84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1073CE9B-AFDA-46C0-9454-C403578F1448}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_AD4DF034E34935FBC521DCBB979A402C5BDEDD84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F8869C3-ED39-4FE4-BA0D-5277E3B34556}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Smart Energy</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>função administrativas para obter relatórios de gastos, utilização, por movimentação,…</t>
+  </si>
+  <si>
+    <t>paineis solares com sistema rotativo para maximizar o obtenção de luz/ fornecimento de energia, sistema seguidor do sol</t>
+  </si>
+  <si>
+    <t>comunicação centralizada em base de dados</t>
   </si>
 </sst>
 </file>
@@ -417,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B21"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="144.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,6 +520,16 @@
         <v>15</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/PA/projeto smart energy.xlsx
+++ b/PA/projeto smart energy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alunosipca-my.sharepoint.com/personal/a2727_alunos_ipca_pt/Documents/Documents/GitHub/LESI3_SmartCampus/PA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_AD4DF034E34935FBC521DCBB979A402C5BDEDD84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F8869C3-ED39-4FE4-BA0D-5277E3B34556}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_AD4DF034E34935FBC521DCBB979A402C5BDEDD84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E77EC6C4-4CFA-47E8-8177-E445BDB9B31C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>desligar a iluminação ou reduzir a quantidade para um valor mínima em causo de ausência de movimento</t>
   </si>
   <si>
-    <t>em ruas com mais de um poste intercalar a iluminação quando se verifique ausência de movimento</t>
-  </si>
-  <si>
     <t>deteção de movimento</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>comunicação centralizada em base de dados</t>
+  </si>
+  <si>
+    <t>em ruas com mais de um poste intercalar a iluminação quando se verifique ausência de movimento ??</t>
   </si>
 </sst>
 </file>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -488,7 +488,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -517,17 +517,17 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PA/projeto smart energy.xlsx
+++ b/PA/projeto smart energy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alunosipca-my.sharepoint.com/personal/a2727_alunos_ipca_pt/Documents/Documents/GitHub/LESI3_SmartCampus/PA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mendes\OneDrive - Instituto Politécnico do Cávado e do Ave\Documents\GitHub\LESI3_SmartCampus\PA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_AD4DF034E34935FBC521DCBB979A402C5BDEDD84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E77EC6C4-4CFA-47E8-8177-E445BDB9B31C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE15669C-B772-4C44-A39A-305363AC12DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Smart Energy</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Funcionalidades</t>
   </si>
   <si>
-    <t>Sensores</t>
-  </si>
-  <si>
     <t>deteção de quantidade de luz</t>
   </si>
   <si>
@@ -81,17 +78,44 @@
     <t>paineis solares com sistema rotativo para maximizar o obtenção de luz/ fornecimento de energia, sistema seguidor do sol</t>
   </si>
   <si>
-    <t>comunicação centralizada em base de dados</t>
-  </si>
-  <si>
     <t>em ruas com mais de um poste intercalar a iluminação quando se verifique ausência de movimento ??</t>
+  </si>
+  <si>
+    <t>Sensores (input)</t>
+  </si>
+  <si>
+    <t>Atuadores (output)</t>
+  </si>
+  <si>
+    <t>led's brancos (iluminação do poste)</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Raspberry Pi - servidor mysql e web</t>
+  </si>
+  <si>
+    <t>Arduino - controlador do poste de iluminação com módulo wifi</t>
+  </si>
+  <si>
+    <t>Ponto de acesso wireless</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>o valor de iluminação dos led's ser em função da quantidade de luz existente, completamente escuro = 100%, dia = 0%, meio escuro = 50%, etc…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comunicação centralizada em base de dados, dados atuais (id do arduino, valor input quantidade de luz, valor output iluminação, input deteção movimento) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +127,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -143,6 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B23"/>
+  <dimension ref="A2:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,59 +507,98 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/PA/projeto smart energy.xlsx
+++ b/PA/projeto smart energy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mendes\OneDrive - Instituto Politécnico do Cávado e do Ave\Documents\GitHub\LESI3_SmartCampus\PA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE15669C-B772-4C44-A39A-305363AC12DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3CCC2F-3A0F-4E6F-89C9-1F2133967A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Smart Energy</t>
   </si>
@@ -73,12 +73,6 @@
   </si>
   <si>
     <t>função administrativas para obter relatórios de gastos, utilização, por movimentação,…</t>
-  </si>
-  <si>
-    <t>paineis solares com sistema rotativo para maximizar o obtenção de luz/ fornecimento de energia, sistema seguidor do sol</t>
-  </si>
-  <si>
-    <t>em ruas com mais de um poste intercalar a iluminação quando se verifique ausência de movimento ??</t>
   </si>
   <si>
     <t>Sensores (input)</t>
@@ -115,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,13 +121,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -174,7 +161,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B31"/>
+  <dimension ref="A2:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +498,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -528,10 +514,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -555,7 +541,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,41 +550,31 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>16</v>
+      <c r="B24" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/PA/projeto smart energy.xlsx
+++ b/PA/projeto smart energy.xlsx
@@ -1,47 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mendes\OneDrive - Instituto Politécnico do Cávado e do Ave\Documents\GitHub\LESI3_SmartCampus\PA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alunosipca-my.sharepoint.com/personal/a2727_alunos_ipca_pt/Documents/Documents/GitHub/LESI3_SmartCampus/PA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3CCC2F-3A0F-4E6F-89C9-1F2133967A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_AD4DF034E34935FBC521DCBB979A402C5BDEDD84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E77EC6C4-4CFA-47E8-8177-E445BDB9B31C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Projeto</t>
+  </si>
   <si>
     <t>Smart Energy</t>
   </si>
   <si>
+    <t>Âmbito</t>
+  </si>
+  <si>
     <t>Controlo de iluminação pública</t>
   </si>
   <si>
     <t>Base de Dados</t>
   </si>
   <si>
-    <t>Projeto</t>
-  </si>
-  <si>
-    <t>Âmbito</t>
-  </si>
-  <si>
     <t>Desenvolvimento de uma base de dados MySQL para gerir o sistema de iluminação pública</t>
   </si>
   <si>
@@ -54,12 +65,21 @@
     <t>App Mobile</t>
   </si>
   <si>
+    <t>função administrativas para obter relatórios de gastos, utilização, por movimentação,…</t>
+  </si>
+  <si>
+    <t>Sensores</t>
+  </si>
+  <si>
+    <t>deteção de quantidade de luz</t>
+  </si>
+  <si>
+    <t>deteção de movimento</t>
+  </si>
+  <si>
     <t>Funcionalidades</t>
   </si>
   <si>
-    <t>deteção de quantidade de luz</t>
-  </si>
-  <si>
     <t>gestão de energia autonomamente</t>
   </si>
   <si>
@@ -69,47 +89,20 @@
     <t>desligar a iluminação ou reduzir a quantidade para um valor mínima em causo de ausência de movimento</t>
   </si>
   <si>
-    <t>deteção de movimento</t>
-  </si>
-  <si>
-    <t>função administrativas para obter relatórios de gastos, utilização, por movimentação,…</t>
-  </si>
-  <si>
-    <t>Sensores (input)</t>
-  </si>
-  <si>
-    <t>Atuadores (output)</t>
-  </si>
-  <si>
-    <t>led's brancos (iluminação do poste)</t>
-  </si>
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>Raspberry Pi - servidor mysql e web</t>
-  </si>
-  <si>
-    <t>Arduino - controlador do poste de iluminação com módulo wifi</t>
-  </si>
-  <si>
-    <t>Ponto de acesso wireless</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>o valor de iluminação dos led's ser em função da quantidade de luz existente, completamente escuro = 100%, dia = 0%, meio escuro = 50%, etc…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comunicação centralizada em base de dados, dados atuais (id do arduino, valor input quantidade de luz, valor output iluminação, input deteção movimento) </t>
+    <t>em ruas com mais de um poste intercalar a iluminação quando se verifique ausência de movimento ??</t>
+  </si>
+  <si>
+    <t>paineis solares com sistema rotativo para maximizar o obtenção de luz/ fornecimento de energia, sistema seguidor do sol</t>
+  </si>
+  <si>
+    <t>comunicação centralizada em base de dados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,43 +434,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B29"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="144.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -485,96 +478,67 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/PA/projeto smart energy.xlsx
+++ b/PA/projeto smart energy.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mendes\OneDrive - Instituto Politécnico do Cávado e do Ave\Documents\GitHub\LESI3_SmartCampus\PA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive - Instituto Politécnico do Cávado e do Ave\Ambiente de Trabalho\LESI3_SmartCampus\PA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3CCC2F-3A0F-4E6F-89C9-1F2133967A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EA7915-0C0C-44DE-8ED8-68F70FC16259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>Smart Energy</t>
   </si>
@@ -81,28 +82,34 @@
     <t>Atuadores (output)</t>
   </si>
   <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Raspberry Pi - servidor mysql e web</t>
+  </si>
+  <si>
+    <t>Arduino - controlador do poste de iluminação com módulo wifi</t>
+  </si>
+  <si>
+    <t>Ponto de acesso wireless</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>o valor de iluminação dos led's ser em função da quantidade de luz existente, completamente escuro = 100%, dia = 0%, meio escuro = 50%, etc…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comunicação centralizada em base de dados, dados atuais (id do arduino, valor input quantidade de luz, valor output iluminação, input deteção movimento) </t>
+  </si>
+  <si>
+    <t>mov</t>
+  </si>
+  <si>
+    <t>ligado</t>
+  </si>
+  <si>
     <t>led's brancos (iluminação do poste)</t>
-  </si>
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>Raspberry Pi - servidor mysql e web</t>
-  </si>
-  <si>
-    <t>Arduino - controlador do poste de iluminação com módulo wifi</t>
-  </si>
-  <si>
-    <t>Ponto de acesso wireless</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>o valor de iluminação dos led's ser em função da quantidade de luz existente, completamente escuro = 100%, dia = 0%, meio escuro = 50%, etc…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comunicação centralizada em base de dados, dados atuais (id do arduino, valor input quantidade de luz, valor output iluminação, input deteção movimento) </t>
   </si>
 </sst>
 </file>
@@ -443,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +524,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -541,7 +548,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,34 +558,228 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388770C0-5D2B-464E-8180-E5ED4D558733}">
+  <dimension ref="A3:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>